--- a/big data system.xlsx
+++ b/big data system.xlsx
@@ -21,7 +21,7 @@
     <author>万正勇</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-TABLESAMPLE; Subqueries; Virtual Columns; Operators and UDFs; LATERAL VIEW; Windowing, OVER, and Analytics; </t>
+</t>
         </r>
       </text>
     </comment>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>MongoDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,14 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key需要包含所有的查询,组建包含ZK/Hmaster/Region Server(data node ,包含MemStore,HFile),Write Ahead Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLAP,batch,数据类型多，支持map,array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实时SQL处理，持续流查询/有CLI/兼容HIVE SQL/ETL/   交互查询效率比HIVE 高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +344,30 @@
   </si>
   <si>
     <t>coordinator 做sql paraser,query planer,execution planer ，支持With table SQL ,rollup/cube/DDL/insert/delete 等/支持window函数自定义函数，计划支持CBO/物化视图/查看执行计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对hbase建立二级索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLESAMPLE; Subqueries; Virtual Columns; Operators and UDFs; LATERAL VIEW; Windowing, OVER, and Analytics; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metastore Database（mysql/pg),HiveServer2(客户端连接用),能够基于spark而不是MR做计算，支持从hbase查询，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLAP,batch,数据类型多，支持map,array，支持CBO统计信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key需要包含所有的查询,组件包含ZK/Hmaster/Region Server(data node ,包含MemStore,HFile),Write Ahead Log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,10 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -733,10 +750,10 @@
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="23.77734375" customWidth="1"/>
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,8 +775,11 @@
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,8 +801,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -803,7 +826,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -826,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -850,7 +873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
@@ -862,7 +885,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -883,7 +906,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -906,7 +929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -932,7 +955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="100.8">
+    <row r="10" spans="1:9" ht="100.8">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -943,7 +966,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -953,7 +976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -974,7 +997,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -996,7 +1019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1022,7 +1045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1034,7 +1057,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1048,7 +1071,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>40</v>
@@ -1066,10 +1089,10 @@
         <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>51</v>
@@ -1078,9 +1101,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="115.2">
+    <row r="18" spans="1:8" ht="144">
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>61</v>
@@ -1096,12 +1122,14 @@
       <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="72">
@@ -1118,7 +1146,8 @@
     <hyperlink ref="C12" r:id="rId1" display="http://phoenix.incubator.apache.org/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
